--- a/INTERHOSPITAL/20240400539 TUTOR COLLES.xlsx
+++ b/INTERHOSPITAL/20240400539 TUTOR COLLES.xlsx
@@ -267,7 +267,7 @@
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -667,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -708,7 +708,7 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -892,45 +892,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="1" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -939,6 +900,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1408,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="71" zoomScaleNormal="100" zoomScaleSheetLayoutView="71" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1869,8 +1869,8 @@
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" ht="20.149999999999999" customHeight="1">
@@ -1879,8 +1879,8 @@
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="A7" s="19" t="s">
@@ -1889,7 +1889,7 @@
       <c r="B7" s="19"/>
       <c r="C7" s="25">
         <f ca="1">NOW()</f>
-        <v>45396.765673611109</v>
+        <v>45397.390107060186</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>1</v>
@@ -1936,10 +1936,10 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="20" t="s">
         <v>36</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="B15" s="19"/>
       <c r="C15" s="25">
         <f ca="1">NOW()</f>
-        <v>45396.765673611109</v>
+        <v>45397.390106944447</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>7</v>
@@ -2115,10 +2115,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="66">
+      <c r="F24" s="53">
         <v>667.04</v>
       </c>
-      <c r="G24" s="66">
+      <c r="G24" s="53">
         <v>667.04</v>
       </c>
       <c r="H24" s="12"/>
@@ -2137,10 +2137,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="66">
+      <c r="F25" s="53">
         <v>667.04</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G25" s="53">
         <v>667.04</v>
       </c>
       <c r="H25" s="12"/>
@@ -2156,7 +2156,7 @@
       <c r="F26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="54" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       <c r="F27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="68">
+      <c r="G27" s="55">
         <v>200</v>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
       <c r="F28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="55" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2316,13 +2316,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="L5:M6"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="L5:M6"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="A24:A25">
